--- a/translations.xlsx
+++ b/translations.xlsx
@@ -400,8 +400,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/translations.xlsx
+++ b/translations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
   <si>
     <t xml:space="preserve">origin</t>
   </si>
@@ -35,97 +35,307 @@
     <t xml:space="preserve">NA (no se aplica)</t>
   </si>
   <si>
-    <t xml:space="preserve">No Charge</t>
+    <t xml:space="preserve">0.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Charge after deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin costo después del deducible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preventive Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atención preventiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preventive Care/Screening/Immunization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios Preventivos/Evaluaciones/Inmunizaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Out of Pocket Limit, Individual/Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Límite anual de gastos de su propio bolsillo, Individual/Familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Deductible, Individual/Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deducible anual, Individual/Familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coinsurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coseguro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office Visit for Specialist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visita al consultorio del médico especialista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialist Visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visita de Especialista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office Visit for Primary Doctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visita al consultorio del médico de atención primaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Care Visit to Treat an Injury or Illness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visita de Cuidado Primaria para Tratar una Lesión o Enfermedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription Drugs Generic, Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicamentos genéricos recetados, Minorista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription Drugs Deductible, Individual/Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deducible para medicamentos recetados, Individual/Familia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription Specialty Drugs, Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicinas de Especialidad de Prescripción, Venta al por menor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription Non-Preferred Brand Drugs, Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescripción Medicinas de Marca No preferidas, Venta al por menor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription Preferred Brand Drugs, Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescripción Medicinas de Marca Preferidas, Venta al por menor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sala de emergencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitalización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inpatient Hospital Services (e.g., Hospital Stay)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuidado de salud de pacientes internados (p. ej. Estancia Hospitalaria)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outpatient Surgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cirugía ambulatoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outpatient Surgery Physician/Surgical Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Médico de cirugía ambulatoria/servicios quirúrgicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urgent Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atención de urgencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outpatient X-ray/Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiografía/laboratorio como paciente ambulatorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiropractic Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atención quiropráctica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical Therapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisioterapia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rehabilitative Occupational and Rehabilitative Physical Therapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terapia Ocupacional de Rehabilitación y Terapia Física de Rehabilitación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/7 Nurse Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Línea de enfermería 24/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member Incentive Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programa de incentivos para miembros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gym Reward Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programa de reembolso para gimnasio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resumen de Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office Visits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visitas al Consultorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios de Prescripción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital &amp; Emergency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios de Hospital y Emergencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios profesionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value Add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">english pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern for translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\$\d,\d{3}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\$\d+ per person / \$\d+ per group$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%s por persona / %s por grupo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\$\d+[.,]?\d{0,3}?$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\d+$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\d+[.,]?\d{0,2}%$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\$\d*[.,]?\d+\s?Individual\s*$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%s Individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\$\d*[.,]?\d+\s?Family\s*$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%s Familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\d+[.,]?\d*\%\s?Coinsurance\s*$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%s Coseguro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\d+[,.]?\d*?\%\s?Coinsurance after deductible\s*$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coseguro del %s después del deducible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\$\d*[.,]?\d+\s?Copay\s*$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%s Copago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\$\d+[.,]?\d+\s?Copay after deductible\s*$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copago de %s después del deducible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\$\d*[.,]?\d+\s?Copay per [dD]ay before deductible\s*$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copago de %s por día antes de deducible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\$\d+[.,]?\d+\s?Copay before deductible\s*$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copago de %s antes de deducible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\$\d*[.,]?\d+\s?Copay per [dD]ay after deductible\s*$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copago de %s por día después del deducible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No [C,c]harge</t>
   </si>
   <si>
     <t xml:space="preserve">Sin costo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Charge after deductible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin costo después del deducible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">english pattern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern for translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^\$\d,\d{3}$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^\$\d+ per person / \$\d+ per group$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%s por persona / %s por grupo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">^\$\d+[.,]?\d+?$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^\d+$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^\d+[.,]?\d+?%$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^\$\d*[.,]?\d+\s?Individual\s*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%s Individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^\$\d*[.,]?\d+\s?Family\s*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%s Familiar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^\d+[.,]?\d*\%\s?Coinsurance\s*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%s Coseguro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^\d+[,.]?\d*?\%\s?Coinsurance after deductible\s*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coseguro del %s después del deducible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^\$\d*[.,]?\d+\s?Copay\s*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%s Copago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^\$\d+[.,]?\d+\s?Copay after deductible\s*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copago de %s después del deducible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^\$\d*[.,]?\d+\s?Copay per day before deductible\s*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copago de %s por día antes de deducible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^\$\d+[.,]?\d+\s?Copay before deductible\s*$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copago de %s antes de deducible</t>
   </si>
 </sst>
 </file>
@@ -303,34 +513,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.7004048582996"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.0242914979757"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.2024291497976"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="21" min="19" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="21" min="19" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -355,33 +565,298 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -398,131 +873,147 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.1538461538462"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.1174089068826"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="46.080971659919"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="47.1336032388664"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>34</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
